--- a/biology/Botanique/Guibourtia/Guibourtia.xlsx
+++ b/biology/Botanique/Guibourtia/Guibourtia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Guibourtia est un genre de plantes dicotylédones de la famille des Fabaceae, sous-famille des Caesalpinioideae, originaire d'Afrique et d'Amérique, qui comprend une quinzaine d'espèces acceptées.
-Ce sont  des arbres et arbustes. Certaines espèces sont exploitées pour leur bois, utilisé comme bois d'œuvre et commercialisé sous les noms de bubinga, kevazingo, ovengkol, amazakoue ou african rosewood. Toutes les espèces produisent une substance résineuse appelée « copal »[2].
+Ce sont  des arbres et arbustes. Certaines espèces sont exploitées pour leur bois, utilisé comme bois d'œuvre et commercialisé sous les noms de bubinga, kevazingo, ovengkol, amazakoue ou african rosewood. Toutes les espèces produisent une substance résineuse appelée « copal ».
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique, « Guibourtia », est un hommage à Nicolas Jean-Baptiste Gaston Guibourt (1790-1867), pharmacien français, qui a mené des recherches sur le copal produit par certaines espèces de Guibourtia[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique, « Guibourtia », est un hommage à Nicolas Jean-Baptiste Gaston Guibourt (1790-1867), pharmacien français, qui a mené des recherches sur le copal produit par certaines espèces de Guibourtia.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Plant List            (11 octobre 2018)[3] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Plant List            (11 octobre 2018) :
 Guibourtia arnoldiana (De Wild. &amp; T.Durand) J.Leonard
 Guibourtia carrissoana (M.A.Exell) J.Leonard
 Guibourtia chodatiana (Hassl.) J.Leonard
